--- a/data/raw/BBSpointXY/已被刪除的樣點表.xlsx
+++ b/data/raw/BBSpointXY/已被刪除的樣點表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="80">
   <si>
     <t>樣區編號</t>
   </si>
@@ -250,6 +250,32 @@
   </si>
   <si>
     <t>B10-14-20</t>
+  </si>
+  <si>
+    <t>A34-62</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳥松溼地</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高雄市</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A34-62-02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅在2019出現</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>120°20'49.45"</t>
+  </si>
+  <si>
+    <t>22°39'08.06"</t>
   </si>
 </sst>
 </file>
@@ -600,16 +626,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="19.5" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="14" max="14" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -1319,6 +1346,50 @@
         <v>60</v>
       </c>
     </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17">
+        <v>171788.304473</v>
+      </c>
+      <c r="G17">
+        <v>2506176.449765</v>
+      </c>
+      <c r="H17">
+        <v>172617.540355</v>
+      </c>
+      <c r="I17">
+        <v>2505971.199275</v>
+      </c>
+      <c r="J17" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" s="4">
+        <v>120.24706999999999</v>
+      </c>
+      <c r="M17" s="4">
+        <v>22.652239000000002</v>
+      </c>
+      <c r="N17" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/raw/BBSpointXY/已被刪除的樣點表.xlsx
+++ b/data/raw/BBSpointXY/已被刪除的樣點表.xlsx
@@ -335,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,6 +343,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,7 +632,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1380,11 +1383,11 @@
       <c r="K17" t="s">
         <v>79</v>
       </c>
-      <c r="L17" s="4">
-        <v>120.24706999999999</v>
-      </c>
-      <c r="M17" s="4">
-        <v>22.652239000000002</v>
+      <c r="L17" s="5">
+        <v>120.34707</v>
+      </c>
+      <c r="M17" s="5">
+        <v>22.652239999999999</v>
       </c>
       <c r="N17" t="s">
         <v>77</v>

--- a/data/raw/BBSpointXY/已被刪除的樣點表.xlsx
+++ b/data/raw/BBSpointXY/已被刪除的樣點表.xlsx
@@ -135,9 +135,6 @@
     <t>鎮西堡B</t>
   </si>
   <si>
-    <t>桃園縣</t>
-  </si>
-  <si>
     <t>121°17'30.62"</t>
   </si>
   <si>
@@ -276,6 +273,10 @@
   </si>
   <si>
     <t>22°39'08.06"</t>
+  </si>
+  <si>
+    <t>桃園市</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -631,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -741,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -785,7 +786,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -835,7 +836,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5">
         <v>278735.43054700003</v>
@@ -850,10 +851,10 @@
         <v>2716238.8872619998</v>
       </c>
       <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
         <v>36</v>
-      </c>
-      <c r="K5" t="s">
-        <v>37</v>
       </c>
       <c r="L5" s="4">
         <v>121.29183999999999</v>
@@ -862,7 +863,7 @@
         <v>24.55245</v>
       </c>
       <c r="N5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -879,7 +880,7 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6">
         <v>278698.37660999998</v>
@@ -894,10 +895,10 @@
         <v>2716036.1242780001</v>
       </c>
       <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
         <v>38</v>
-      </c>
-      <c r="K6" t="s">
-        <v>39</v>
       </c>
       <c r="L6" s="4">
         <v>121.29147</v>
@@ -906,7 +907,7 @@
         <v>24.550619999999999</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -923,7 +924,7 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7">
         <v>278773.78139000002</v>
@@ -938,10 +939,10 @@
         <v>2715829.1690290002</v>
       </c>
       <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
         <v>40</v>
-      </c>
-      <c r="K7" t="s">
-        <v>41</v>
       </c>
       <c r="L7" s="4">
         <v>121.29221</v>
@@ -950,7 +951,7 @@
         <v>24.548749999999998</v>
       </c>
       <c r="N7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -967,7 +968,7 @@
         <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8">
         <v>278680.976906</v>
@@ -982,10 +983,10 @@
         <v>2715640.6865400001</v>
       </c>
       <c r="J8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" t="s">
         <v>42</v>
-      </c>
-      <c r="K8" t="s">
-        <v>43</v>
       </c>
       <c r="L8" s="4">
         <v>121.29129</v>
@@ -994,7 +995,7 @@
         <v>24.547049999999999</v>
       </c>
       <c r="N8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -1011,7 +1012,7 @@
         <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9">
         <v>278745.21363200003</v>
@@ -1026,10 +1027,10 @@
         <v>2715445.8908480001</v>
       </c>
       <c r="J9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" t="s">
         <v>44</v>
-      </c>
-      <c r="K9" t="s">
-        <v>45</v>
       </c>
       <c r="L9" s="4">
         <v>121.29192</v>
@@ -1038,7 +1039,7 @@
         <v>24.545290000000001</v>
       </c>
       <c r="N9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1055,7 +1056,7 @@
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10">
         <v>278602.74748299998</v>
@@ -1070,10 +1071,10 @@
         <v>2715265.0569409998</v>
       </c>
       <c r="J10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" t="s">
         <v>46</v>
-      </c>
-      <c r="K10" t="s">
-        <v>47</v>
       </c>
       <c r="L10" s="4">
         <v>121.29051</v>
@@ -1082,7 +1083,7 @@
         <v>24.543659999999999</v>
       </c>
       <c r="N10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1099,7 +1100,7 @@
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11">
         <v>278699.48659400002</v>
@@ -1114,10 +1115,10 @@
         <v>2715031.5648420001</v>
       </c>
       <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" t="s">
         <v>48</v>
-      </c>
-      <c r="K11" t="s">
-        <v>49</v>
       </c>
       <c r="L11" s="4">
         <v>121.29146</v>
@@ -1126,7 +1127,7 @@
         <v>24.541550000000001</v>
       </c>
       <c r="N11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1143,7 +1144,7 @@
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12">
         <v>278856.85509500001</v>
@@ -1158,10 +1159,10 @@
         <v>2714874.6240360001</v>
       </c>
       <c r="J12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" t="s">
         <v>50</v>
-      </c>
-      <c r="K12" t="s">
-        <v>51</v>
       </c>
       <c r="L12" s="4">
         <v>121.29301</v>
@@ -1170,7 +1171,7 @@
         <v>24.540130000000001</v>
       </c>
       <c r="N12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1187,7 +1188,7 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13">
         <v>279033.50534099998</v>
@@ -1202,10 +1203,10 @@
         <v>2714704.435395</v>
       </c>
       <c r="J13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" t="s">
         <v>52</v>
-      </c>
-      <c r="K13" t="s">
-        <v>53</v>
       </c>
       <c r="L13" s="4">
         <v>121.29474999999999</v>
@@ -1214,7 +1215,7 @@
         <v>24.538589999999999</v>
       </c>
       <c r="N13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1231,7 +1232,7 @@
         <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14">
         <v>279234.03742100002</v>
@@ -1246,10 +1247,10 @@
         <v>2714738.0922130002</v>
       </c>
       <c r="J14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" t="s">
         <v>54</v>
-      </c>
-      <c r="K14" t="s">
-        <v>55</v>
       </c>
       <c r="L14" s="4">
         <v>121.29673</v>
@@ -1258,7 +1259,7 @@
         <v>24.538889999999999</v>
       </c>
       <c r="N14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1275,7 +1276,7 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15">
         <v>279353.191697</v>
@@ -1290,10 +1291,10 @@
         <v>2714922.204808</v>
       </c>
       <c r="J15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" t="s">
         <v>56</v>
-      </c>
-      <c r="K15" t="s">
-        <v>57</v>
       </c>
       <c r="L15" s="4">
         <v>121.29791</v>
@@ -1302,7 +1303,7 @@
         <v>24.54055</v>
       </c>
       <c r="N15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1319,7 +1320,7 @@
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16">
         <v>279103.86594799999</v>
@@ -1334,10 +1335,10 @@
         <v>2714965.9711969998</v>
       </c>
       <c r="J16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" t="s">
         <v>58</v>
-      </c>
-      <c r="K16" t="s">
-        <v>59</v>
       </c>
       <c r="L16" s="4">
         <v>121.29545</v>
@@ -1346,24 +1347,24 @@
         <v>24.540949999999999</v>
       </c>
       <c r="N16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="4">
         <v>2</v>
       </c>
       <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
         <v>75</v>
-      </c>
-      <c r="D17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" t="s">
-        <v>76</v>
       </c>
       <c r="F17">
         <v>171788.304473</v>
@@ -1378,10 +1379,10 @@
         <v>2505971.199275</v>
       </c>
       <c r="J17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" t="s">
         <v>78</v>
-      </c>
-      <c r="K17" t="s">
-        <v>79</v>
       </c>
       <c r="L17" s="5">
         <v>120.34707</v>
@@ -1390,7 +1391,7 @@
         <v>22.652239999999999</v>
       </c>
       <c r="N17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/BBSpointXY/已被刪除的樣點表.xlsx
+++ b/data/raw/BBSpointXY/已被刪除的樣點表.xlsx
@@ -9,7 +9,10 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$A$28</definedName>
+  </definedNames>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="259">
   <si>
     <t>樣區編號</t>
   </si>
@@ -277,12 +280,566 @@
   <si>
     <t>桃園市</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A36-03</t>
+  </si>
+  <si>
+    <t>台南市</t>
+  </si>
+  <si>
+    <t>愛文山</t>
+  </si>
+  <si>
+    <t>A36-03-04</t>
+  </si>
+  <si>
+    <t>120°26'00.91"</t>
+  </si>
+  <si>
+    <t>23°05'12.70"</t>
+  </si>
+  <si>
+    <t>A36-03-08</t>
+  </si>
+  <si>
+    <t>120°25'42.86"</t>
+  </si>
+  <si>
+    <t>23°05'24.60"</t>
+  </si>
+  <si>
+    <t>2014建議刪除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A28-06</t>
+  </si>
+  <si>
+    <t>台中市</t>
+  </si>
+  <si>
+    <t>台中縣烏石坑</t>
+  </si>
+  <si>
+    <t>A28-06-10</t>
+  </si>
+  <si>
+    <t>120°56'04.71"</t>
+  </si>
+  <si>
+    <t>24°18'08.21"</t>
+  </si>
+  <si>
+    <t>2014年樣點10因雨路崩危險未調查</t>
+  </si>
+  <si>
+    <t>A09-45</t>
+  </si>
+  <si>
+    <t>台北市</t>
+  </si>
+  <si>
+    <t>台北市青年公園</t>
+  </si>
+  <si>
+    <t>A09-45-01</t>
+  </si>
+  <si>
+    <t>121°30'10.68"</t>
+  </si>
+  <si>
+    <t>25°01'38.06"</t>
+  </si>
+  <si>
+    <t>2019樣點1已建成教室大樓，依志工意見刪除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A20-01</t>
+  </si>
+  <si>
+    <t>花蓮縣</t>
+  </si>
+  <si>
+    <t>花蓮縣安通溫泉</t>
+  </si>
+  <si>
+    <t>A40-01</t>
+  </si>
+  <si>
+    <t>A40-01-05</t>
+  </si>
+  <si>
+    <t>120°35'33.11"</t>
+  </si>
+  <si>
+    <t>22°35'58.50"</t>
+  </si>
+  <si>
+    <t>屏東縣</t>
+  </si>
+  <si>
+    <t>屏東縣萬巒</t>
+  </si>
+  <si>
+    <t>2018刪除樣點5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A20-01-02</t>
+  </si>
+  <si>
+    <t>121°20'17.06"</t>
+  </si>
+  <si>
+    <t>23°17'43.03"</t>
+  </si>
+  <si>
+    <t>2018建議刪除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A21-01</t>
+  </si>
+  <si>
+    <t>A21-01-06</t>
+  </si>
+  <si>
+    <t>121°10'11.74"</t>
+  </si>
+  <si>
+    <t>23°06'28.75"</t>
+  </si>
+  <si>
+    <t>台東縣</t>
+  </si>
+  <si>
+    <t>台東縣海端</t>
+  </si>
+  <si>
+    <t>A21-01-08</t>
+  </si>
+  <si>
+    <t>121°10'41.46"</t>
+  </si>
+  <si>
+    <t>23°06'11.78"</t>
+  </si>
+  <si>
+    <t>2018刪除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018刪除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A21-02</t>
+  </si>
+  <si>
+    <t>台東縣興華</t>
+  </si>
+  <si>
+    <t>A21-02-08</t>
+  </si>
+  <si>
+    <t>121°17'44.80"</t>
+  </si>
+  <si>
+    <t>23°02'10.47"</t>
+  </si>
+  <si>
+    <t>A21-02-09</t>
+  </si>
+  <si>
+    <t>121°17'43.40"</t>
+  </si>
+  <si>
+    <t>23°02'13.27"</t>
+  </si>
+  <si>
+    <t>A21-02-10</t>
+  </si>
+  <si>
+    <t>121°17'48.50"</t>
+  </si>
+  <si>
+    <t>23°02'30.17"</t>
+  </si>
+  <si>
+    <t>A40-11</t>
+  </si>
+  <si>
+    <t>福德宮</t>
+  </si>
+  <si>
+    <t>A40-11-01</t>
+  </si>
+  <si>
+    <t>120°29'32.01"</t>
+  </si>
+  <si>
+    <t>22°26'22.01"</t>
+  </si>
+  <si>
+    <t>2019刪除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A35-16</t>
+  </si>
+  <si>
+    <t>嘉義市</t>
+  </si>
+  <si>
+    <t>蘭潭</t>
+  </si>
+  <si>
+    <t>A35-16-01</t>
+  </si>
+  <si>
+    <t>120°28'08.59"</t>
+  </si>
+  <si>
+    <t>23°27'44.46"</t>
+  </si>
+  <si>
+    <t>A35-16-08</t>
+  </si>
+  <si>
+    <t>120°29'28.15"</t>
+  </si>
+  <si>
+    <t>23°28'41.58"</t>
+  </si>
+  <si>
+    <t>2018刪除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A09-32</t>
+  </si>
+  <si>
+    <t>劍潭</t>
+  </si>
+  <si>
+    <t>A09-32-01</t>
+  </si>
+  <si>
+    <t>121°31'31.75"</t>
+  </si>
+  <si>
+    <t>25°04'54.67"</t>
+  </si>
+  <si>
+    <t>2014刪除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A28-03</t>
+  </si>
+  <si>
+    <t>苗栗縣</t>
+  </si>
+  <si>
+    <t>苗栗縣三義內草湖</t>
+  </si>
+  <si>
+    <t>A28-03-03</t>
+  </si>
+  <si>
+    <t>120°47'32.38"</t>
+  </si>
+  <si>
+    <t>24°24'47.69"</t>
+  </si>
+  <si>
+    <t>A28-03-04</t>
+  </si>
+  <si>
+    <t>120°47'25.05"</t>
+  </si>
+  <si>
+    <t>24°24'55.28"</t>
+  </si>
+  <si>
+    <t>A28-03-05</t>
+  </si>
+  <si>
+    <t>120°47'21.81"</t>
+  </si>
+  <si>
+    <t>24°25'04.87"</t>
+  </si>
+  <si>
+    <t>A28-03-06</t>
+  </si>
+  <si>
+    <t>120°47'19.08"</t>
+  </si>
+  <si>
+    <t>24°24'58.65"</t>
+  </si>
+  <si>
+    <t>2016樣點3-6無法達到</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A35-10</t>
+  </si>
+  <si>
+    <t>嘉義縣</t>
+  </si>
+  <si>
+    <t>灣潭國小</t>
+  </si>
+  <si>
+    <t>A35-10-03</t>
+  </si>
+  <si>
+    <t>120°33'35.28"</t>
+  </si>
+  <si>
+    <t>23°25'42.42"</t>
+  </si>
+  <si>
+    <t>2016刪除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A40-10</t>
+  </si>
+  <si>
+    <t>三西和產業道路</t>
+  </si>
+  <si>
+    <t>A40-10-07</t>
+  </si>
+  <si>
+    <t>120°28'18.99"</t>
+  </si>
+  <si>
+    <t>22°29'09.01"</t>
+  </si>
+  <si>
+    <t>2014刪除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A04-26</t>
+  </si>
+  <si>
+    <t>木柵貓空</t>
+  </si>
+  <si>
+    <t>A04-26-08</t>
+  </si>
+  <si>
+    <t>121°35'20.53"</t>
+  </si>
+  <si>
+    <t>24°57'52.86"</t>
+  </si>
+  <si>
+    <t>A04-26-09</t>
+  </si>
+  <si>
+    <t>121°35'26.87"</t>
+  </si>
+  <si>
+    <t>24°57'52.16"</t>
+  </si>
+  <si>
+    <t>A04-26-10</t>
+  </si>
+  <si>
+    <t>121°35'34.31"</t>
+  </si>
+  <si>
+    <t>24°57'49.36"</t>
+  </si>
+  <si>
+    <t>A29-05</t>
+  </si>
+  <si>
+    <t>A29-05-03</t>
+  </si>
+  <si>
+    <t>120°46'15.33"</t>
+  </si>
+  <si>
+    <t>24°10'27.82"</t>
+  </si>
+  <si>
+    <t>台中市大坑</t>
+  </si>
+  <si>
+    <t>A29-05-08</t>
+  </si>
+  <si>
+    <t>120°46'04.00"</t>
+  </si>
+  <si>
+    <t>24°10'15.40"</t>
+  </si>
+  <si>
+    <t>A28-12</t>
+  </si>
+  <si>
+    <t>坪埔橋（大雪山林道）</t>
+  </si>
+  <si>
+    <t>A28-12-10</t>
+  </si>
+  <si>
+    <t>120°52'50.00"</t>
+  </si>
+  <si>
+    <t>24°14'21.01"</t>
+  </si>
+  <si>
+    <t>A28-13</t>
+  </si>
+  <si>
+    <t>馬鞍電廠</t>
+  </si>
+  <si>
+    <t>A28-13-08</t>
+  </si>
+  <si>
+    <t>120°50'12.99"</t>
+  </si>
+  <si>
+    <t>24°10'09.01"</t>
+  </si>
+  <si>
+    <t>A09-58</t>
+  </si>
+  <si>
+    <t>桃園縣</t>
+  </si>
+  <si>
+    <t>陸光四村</t>
+  </si>
+  <si>
+    <t>A09-58_04</t>
+  </si>
+  <si>
+    <t>121°17'51.08"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>24°57'45.81"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A04-39</t>
+  </si>
+  <si>
+    <t>新北市</t>
+  </si>
+  <si>
+    <t>坪林漁光</t>
+  </si>
+  <si>
+    <t>A04-39-03</t>
+  </si>
+  <si>
+    <t>121°44'10.64"</t>
+  </si>
+  <si>
+    <t>24°57'25.84"</t>
+  </si>
+  <si>
+    <t>A04-39-09</t>
+  </si>
+  <si>
+    <t>121°43'37.32"</t>
+  </si>
+  <si>
+    <t>24°57'59.64"</t>
+  </si>
+  <si>
+    <t>A29-19</t>
+  </si>
+  <si>
+    <t>後壁農路</t>
+  </si>
+  <si>
+    <t>A29-19-04</t>
+  </si>
+  <si>
+    <t>120°44'24.5"</t>
+  </si>
+  <si>
+    <t>24°06'43.84"</t>
+  </si>
+  <si>
+    <t>A16-03</t>
+  </si>
+  <si>
+    <t>花蓮縣合流</t>
+  </si>
+  <si>
+    <t>A16-03-06</t>
+  </si>
+  <si>
+    <t>121°30'28.85"</t>
+  </si>
+  <si>
+    <t>24°10'44.63"</t>
+  </si>
+  <si>
+    <t>B16-02</t>
+  </si>
+  <si>
+    <t>B16-02-05</t>
+  </si>
+  <si>
+    <t>121°20'21.48"</t>
+  </si>
+  <si>
+    <t>24°11'15.18"</t>
+  </si>
+  <si>
+    <t>B16-02-06</t>
+  </si>
+  <si>
+    <t>121°19'34.68"</t>
+  </si>
+  <si>
+    <t>24°11'05.08"</t>
+  </si>
+  <si>
+    <t>花蓮縣關原</t>
+  </si>
+  <si>
+    <t>C37-04</t>
+  </si>
+  <si>
+    <t>南投縣</t>
+  </si>
+  <si>
+    <t>塔塔加鞍部</t>
+  </si>
+  <si>
+    <t>C37-04-10</t>
+  </si>
+  <si>
+    <t>120°53'30.81"</t>
+  </si>
+  <si>
+    <t>23°28'45.02"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -336,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -349,6 +906,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -630,16 +1190,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="19.5" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
     <col min="14" max="14" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1394,7 +1955,1550 @@
         <v>76</v>
       </c>
     </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18">
+        <v>191143</v>
+      </c>
+      <c r="G18">
+        <v>2554219</v>
+      </c>
+      <c r="H18">
+        <v>191972</v>
+      </c>
+      <c r="I18">
+        <v>2554014</v>
+      </c>
+      <c r="J18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18">
+        <v>120.43359</v>
+      </c>
+      <c r="M18">
+        <v>23.086860000000001</v>
+      </c>
+      <c r="N18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19">
+        <v>190631</v>
+      </c>
+      <c r="G19">
+        <v>2554588</v>
+      </c>
+      <c r="H19">
+        <v>191460</v>
+      </c>
+      <c r="I19">
+        <v>2554382</v>
+      </c>
+      <c r="J19" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19">
+        <v>120.42856999999999</v>
+      </c>
+      <c r="M19">
+        <v>23.090170000000001</v>
+      </c>
+      <c r="N19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="3">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="3">
+        <v>243365.938150348</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2688511.3466828</v>
+      </c>
+      <c r="H20" s="3">
+        <v>243365.96216416699</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2688502.0519819101</v>
+      </c>
+      <c r="J20" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="3">
+        <v>120.93464166666701</v>
+      </c>
+      <c r="M20" s="3">
+        <v>24.302280555555601</v>
+      </c>
+      <c r="N20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="6">
+        <v>300758.85959333001</v>
+      </c>
+      <c r="G21" s="6">
+        <v>2768898.42564988</v>
+      </c>
+      <c r="H21" s="6">
+        <v>300758.67581803899</v>
+      </c>
+      <c r="I21" s="6">
+        <v>2768888.8507506102</v>
+      </c>
+      <c r="J21" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" t="s">
+        <v>102</v>
+      </c>
+      <c r="L21" s="7">
+        <v>121.50296666666701</v>
+      </c>
+      <c r="M21" s="7">
+        <v>25.027238888888899</v>
+      </c>
+      <c r="N21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22">
+        <v>207277.93400000001</v>
+      </c>
+      <c r="G22">
+        <v>2500207.1949999998</v>
+      </c>
+      <c r="H22">
+        <v>208107.0860000001</v>
+      </c>
+      <c r="I22">
+        <v>2500001.8059999989</v>
+      </c>
+      <c r="J22" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" t="s">
+        <v>110</v>
+      </c>
+      <c r="L22">
+        <v>120.59253099999999</v>
+      </c>
+      <c r="M22">
+        <v>22.599582000000002</v>
+      </c>
+      <c r="N22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23">
+        <v>283752.217</v>
+      </c>
+      <c r="G23">
+        <v>2577227.5240000002</v>
+      </c>
+      <c r="H23">
+        <v>284580.75800000015</v>
+      </c>
+      <c r="I23">
+        <v>2577022.4769999986</v>
+      </c>
+      <c r="J23" t="s">
+        <v>115</v>
+      </c>
+      <c r="K23" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23">
+        <v>121.33807299999999</v>
+      </c>
+      <c r="M23">
+        <v>23.295286000000001</v>
+      </c>
+      <c r="N23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24">
+        <v>266577.15899999999</v>
+      </c>
+      <c r="G24">
+        <v>2556456.4360000002</v>
+      </c>
+      <c r="H24">
+        <v>267406</v>
+      </c>
+      <c r="I24">
+        <v>2556251</v>
+      </c>
+      <c r="J24" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" t="s">
+        <v>121</v>
+      </c>
+      <c r="L24">
+        <v>121.169929</v>
+      </c>
+      <c r="M24">
+        <v>23.107986</v>
+      </c>
+      <c r="N24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25">
+        <v>267423.163</v>
+      </c>
+      <c r="G25">
+        <v>2555935.4330000002</v>
+      </c>
+      <c r="H25">
+        <v>268252</v>
+      </c>
+      <c r="I25">
+        <v>2555730</v>
+      </c>
+      <c r="J25" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" t="s">
+        <v>126</v>
+      </c>
+      <c r="L25">
+        <v>121.17818200000001</v>
+      </c>
+      <c r="M25">
+        <v>23.103272</v>
+      </c>
+      <c r="N25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26">
+        <v>279484.20699999999</v>
+      </c>
+      <c r="G26">
+        <v>2548532.4040000001</v>
+      </c>
+      <c r="H26">
+        <v>280312.77100000001</v>
+      </c>
+      <c r="I26">
+        <v>2548326.5970000001</v>
+      </c>
+      <c r="J26" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" t="s">
+        <v>133</v>
+      </c>
+      <c r="L26">
+        <v>121.295779</v>
+      </c>
+      <c r="M26">
+        <v>23.036242000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27">
+        <v>279444.20699999999</v>
+      </c>
+      <c r="G27">
+        <v>2548618.4040000001</v>
+      </c>
+      <c r="H27">
+        <v>280272.772</v>
+      </c>
+      <c r="I27">
+        <v>2548412.5970000001</v>
+      </c>
+      <c r="J27" t="s">
+        <v>135</v>
+      </c>
+      <c r="K27" t="s">
+        <v>136</v>
+      </c>
+      <c r="L27">
+        <v>121.29539</v>
+      </c>
+      <c r="M27">
+        <v>23.037019999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28">
+        <v>279588.20699999999</v>
+      </c>
+      <c r="G28">
+        <v>2549138.406</v>
+      </c>
+      <c r="H28">
+        <v>280416.77100000001</v>
+      </c>
+      <c r="I28">
+        <v>2548932.5950000002</v>
+      </c>
+      <c r="J28" t="s">
+        <v>138</v>
+      </c>
+      <c r="K28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L28">
+        <v>121.296806</v>
+      </c>
+      <c r="M28">
+        <v>23.041713000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29">
+        <v>196904.889</v>
+      </c>
+      <c r="G29">
+        <v>2482507.1179999998</v>
+      </c>
+      <c r="H29">
+        <v>197733.58</v>
+      </c>
+      <c r="I29">
+        <v>2482301.7200000002</v>
+      </c>
+      <c r="J29" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" t="s">
+        <v>144</v>
+      </c>
+      <c r="L29">
+        <v>120.492226</v>
+      </c>
+      <c r="M29">
+        <v>22.439447000000001</v>
+      </c>
+      <c r="N29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30">
+        <v>194928.91399999999</v>
+      </c>
+      <c r="G30">
+        <v>2595787.6030000001</v>
+      </c>
+      <c r="H30">
+        <v>195757.72</v>
+      </c>
+      <c r="I30">
+        <v>2595582.08</v>
+      </c>
+      <c r="J30" t="s">
+        <v>150</v>
+      </c>
+      <c r="K30" t="s">
+        <v>151</v>
+      </c>
+      <c r="L30">
+        <v>120.469053</v>
+      </c>
+      <c r="M30">
+        <v>23.462349</v>
+      </c>
+      <c r="N30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31">
+        <v>197192.92199999999</v>
+      </c>
+      <c r="G31">
+        <v>2597536.61</v>
+      </c>
+      <c r="H31">
+        <v>198021.73</v>
+      </c>
+      <c r="I31">
+        <v>2597331.08</v>
+      </c>
+      <c r="J31" t="s">
+        <v>153</v>
+      </c>
+      <c r="K31" t="s">
+        <v>154</v>
+      </c>
+      <c r="L31">
+        <v>120.491153</v>
+      </c>
+      <c r="M31">
+        <v>23.478216</v>
+      </c>
+      <c r="N31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" t="s">
+        <v>158</v>
+      </c>
+      <c r="F32">
+        <v>302179.22499999998</v>
+      </c>
+      <c r="G32">
+        <v>2775153.2429999998</v>
+      </c>
+      <c r="H32">
+        <v>303008</v>
+      </c>
+      <c r="I32">
+        <v>2774947</v>
+      </c>
+      <c r="J32" t="s">
+        <v>159</v>
+      </c>
+      <c r="K32" t="s">
+        <v>160</v>
+      </c>
+      <c r="L32">
+        <v>121.525487</v>
+      </c>
+      <c r="M32">
+        <v>25.081854</v>
+      </c>
+      <c r="N32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33">
+        <v>228110.03899999999</v>
+      </c>
+      <c r="G33">
+        <v>2701011.9920000001</v>
+      </c>
+      <c r="H33">
+        <v>228938.97300000003</v>
+      </c>
+      <c r="I33">
+        <v>2700806.0090000001</v>
+      </c>
+      <c r="J33" t="s">
+        <v>166</v>
+      </c>
+      <c r="K33" t="s">
+        <v>167</v>
+      </c>
+      <c r="L33">
+        <v>120.792327</v>
+      </c>
+      <c r="M33">
+        <v>24.413246000000001</v>
+      </c>
+      <c r="N33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34">
+        <v>227904.038</v>
+      </c>
+      <c r="G34">
+        <v>2701245.9929999998</v>
+      </c>
+      <c r="H34">
+        <v>228732.97399999996</v>
+      </c>
+      <c r="I34">
+        <v>2701040.0080000004</v>
+      </c>
+      <c r="J34" t="s">
+        <v>169</v>
+      </c>
+      <c r="K34" t="s">
+        <v>170</v>
+      </c>
+      <c r="L34">
+        <v>120.79029199999999</v>
+      </c>
+      <c r="M34">
+        <v>24.415355999999999</v>
+      </c>
+      <c r="N34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35">
+        <v>227813.038</v>
+      </c>
+      <c r="G35">
+        <v>2701540.9939999999</v>
+      </c>
+      <c r="H35">
+        <v>228641.97399999996</v>
+      </c>
+      <c r="I35">
+        <v>2701335.0069999998</v>
+      </c>
+      <c r="J35" t="s">
+        <v>172</v>
+      </c>
+      <c r="K35" t="s">
+        <v>173</v>
+      </c>
+      <c r="L35">
+        <v>120.78939099999999</v>
+      </c>
+      <c r="M35">
+        <v>24.418019000000001</v>
+      </c>
+      <c r="N35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" t="s">
+        <v>174</v>
+      </c>
+      <c r="F36">
+        <v>227736.038</v>
+      </c>
+      <c r="G36">
+        <v>2701349.9929999998</v>
+      </c>
+      <c r="H36">
+        <v>228564.97399999996</v>
+      </c>
+      <c r="I36">
+        <v>2701144.0080000004</v>
+      </c>
+      <c r="J36" t="s">
+        <v>175</v>
+      </c>
+      <c r="K36" t="s">
+        <v>176</v>
+      </c>
+      <c r="L36">
+        <v>120.788634</v>
+      </c>
+      <c r="M36">
+        <v>24.416293</v>
+      </c>
+      <c r="N36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37">
+        <v>204188.4</v>
+      </c>
+      <c r="G37">
+        <v>2592002.25</v>
+      </c>
+      <c r="H37">
+        <v>205017.48</v>
+      </c>
+      <c r="I37">
+        <v>2591796.66</v>
+      </c>
+      <c r="J37" t="s">
+        <v>182</v>
+      </c>
+      <c r="K37" t="s">
+        <v>183</v>
+      </c>
+      <c r="L37">
+        <v>120.5598</v>
+      </c>
+      <c r="M37">
+        <v>23.428450000000002</v>
+      </c>
+      <c r="N37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" t="s">
+        <v>186</v>
+      </c>
+      <c r="E38" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38">
+        <v>194834.88200000001</v>
+      </c>
+      <c r="G38">
+        <v>2487651.1409999998</v>
+      </c>
+      <c r="H38">
+        <v>195664.38</v>
+      </c>
+      <c r="I38">
+        <v>2487445.52</v>
+      </c>
+      <c r="J38" t="s">
+        <v>188</v>
+      </c>
+      <c r="K38" t="s">
+        <v>189</v>
+      </c>
+      <c r="L38">
+        <v>120.471941</v>
+      </c>
+      <c r="M38">
+        <v>22.485837</v>
+      </c>
+      <c r="N38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39">
+        <v>308646.245</v>
+      </c>
+      <c r="G39">
+        <v>2762201.2039999999</v>
+      </c>
+      <c r="H39">
+        <v>309475.37</v>
+      </c>
+      <c r="I39">
+        <v>2761994.52</v>
+      </c>
+      <c r="J39" t="s">
+        <v>194</v>
+      </c>
+      <c r="K39" t="s">
+        <v>195</v>
+      </c>
+      <c r="L39">
+        <v>121.58903599999999</v>
+      </c>
+      <c r="M39">
+        <v>24.964683999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
+        <v>192</v>
+      </c>
+      <c r="E40" t="s">
+        <v>196</v>
+      </c>
+      <c r="F40">
+        <v>308824.24599999998</v>
+      </c>
+      <c r="G40">
+        <v>2762180.2039999999</v>
+      </c>
+      <c r="H40">
+        <v>309653.17</v>
+      </c>
+      <c r="I40">
+        <v>2761974.25</v>
+      </c>
+      <c r="J40" t="s">
+        <v>197</v>
+      </c>
+      <c r="K40" t="s">
+        <v>198</v>
+      </c>
+      <c r="L40">
+        <v>121.59079800000001</v>
+      </c>
+      <c r="M40">
+        <v>24.964487999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" t="s">
+        <v>192</v>
+      </c>
+      <c r="E41" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41">
+        <v>309033.24599999998</v>
+      </c>
+      <c r="G41">
+        <v>2762095.2030000002</v>
+      </c>
+      <c r="H41">
+        <v>309861.55</v>
+      </c>
+      <c r="I41">
+        <v>2761888.76</v>
+      </c>
+      <c r="J41" t="s">
+        <v>200</v>
+      </c>
+      <c r="K41" t="s">
+        <v>201</v>
+      </c>
+      <c r="L41">
+        <v>121.59286400000001</v>
+      </c>
+      <c r="M41">
+        <v>24.963712000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E42" t="s">
+        <v>203</v>
+      </c>
+      <c r="F42">
+        <v>225896.02900000001</v>
+      </c>
+      <c r="G42">
+        <v>2674561.898</v>
+      </c>
+      <c r="H42">
+        <v>226724.72</v>
+      </c>
+      <c r="I42">
+        <v>2674356.0499999998</v>
+      </c>
+      <c r="J42" t="s">
+        <v>204</v>
+      </c>
+      <c r="K42" t="s">
+        <v>205</v>
+      </c>
+      <c r="L42">
+        <v>120.77092500000001</v>
+      </c>
+      <c r="M42">
+        <v>24.174393999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" t="s">
+        <v>206</v>
+      </c>
+      <c r="E43" t="s">
+        <v>207</v>
+      </c>
+      <c r="F43">
+        <v>225575.86</v>
+      </c>
+      <c r="G43">
+        <v>2674179.9500000002</v>
+      </c>
+      <c r="H43">
+        <v>226404.84</v>
+      </c>
+      <c r="I43">
+        <v>2673974.0499999998</v>
+      </c>
+      <c r="J43" t="s">
+        <v>208</v>
+      </c>
+      <c r="K43" t="s">
+        <v>209</v>
+      </c>
+      <c r="L43">
+        <v>120.76777777777778</v>
+      </c>
+      <c r="M43">
+        <v>24.170944444444444</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>210</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" t="s">
+        <v>211</v>
+      </c>
+      <c r="E44" t="s">
+        <v>212</v>
+      </c>
+      <c r="F44">
+        <v>237041.06200000001</v>
+      </c>
+      <c r="G44">
+        <v>2681721.923</v>
+      </c>
+      <c r="H44">
+        <v>237870.14</v>
+      </c>
+      <c r="I44">
+        <v>2681515.81</v>
+      </c>
+      <c r="J44" t="s">
+        <v>213</v>
+      </c>
+      <c r="K44" t="s">
+        <v>214</v>
+      </c>
+      <c r="L44">
+        <v>120.880555</v>
+      </c>
+      <c r="M44">
+        <v>24.239169</v>
+      </c>
+      <c r="N44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" t="s">
+        <v>216</v>
+      </c>
+      <c r="E45" t="s">
+        <v>217</v>
+      </c>
+      <c r="F45">
+        <v>232603.049</v>
+      </c>
+      <c r="G45">
+        <v>2673973.895</v>
+      </c>
+      <c r="H45">
+        <v>233432.17</v>
+      </c>
+      <c r="I45">
+        <v>2673767.7599999998</v>
+      </c>
+      <c r="J45" t="s">
+        <v>218</v>
+      </c>
+      <c r="K45" t="s">
+        <v>219</v>
+      </c>
+      <c r="L45">
+        <v>120.83694199999999</v>
+      </c>
+      <c r="M45">
+        <v>24.169169</v>
+      </c>
+      <c r="N45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>221</v>
+      </c>
+      <c r="D46" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" t="s">
+        <v>223</v>
+      </c>
+      <c r="F46">
+        <v>279212.17200000002</v>
+      </c>
+      <c r="G46">
+        <v>2761888.1970000002</v>
+      </c>
+      <c r="H46">
+        <v>280041.04000000004</v>
+      </c>
+      <c r="I46">
+        <v>2761682.4450000003</v>
+      </c>
+      <c r="J46" t="s">
+        <v>224</v>
+      </c>
+      <c r="K46" t="s">
+        <v>225</v>
+      </c>
+      <c r="L46">
+        <v>121.297522</v>
+      </c>
+      <c r="M46">
+        <v>24.962726</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>227</v>
+      </c>
+      <c r="D47" t="s">
+        <v>228</v>
+      </c>
+      <c r="E47" t="s">
+        <v>229</v>
+      </c>
+      <c r="F47">
+        <v>323519.28200000001</v>
+      </c>
+      <c r="G47">
+        <v>2761442.2059999998</v>
+      </c>
+      <c r="H47">
+        <v>324348</v>
+      </c>
+      <c r="I47">
+        <v>2761236</v>
+      </c>
+      <c r="J47" t="s">
+        <v>230</v>
+      </c>
+      <c r="K47" t="s">
+        <v>231</v>
+      </c>
+      <c r="L47">
+        <v>121.736288</v>
+      </c>
+      <c r="M47">
+        <v>24.957177000000001</v>
+      </c>
+      <c r="N47" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>226</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>227</v>
+      </c>
+      <c r="D48" t="s">
+        <v>228</v>
+      </c>
+      <c r="E48" t="s">
+        <v>232</v>
+      </c>
+      <c r="F48">
+        <v>322579.27899999998</v>
+      </c>
+      <c r="G48">
+        <v>2762477.2089999998</v>
+      </c>
+      <c r="H48">
+        <v>323408</v>
+      </c>
+      <c r="I48">
+        <v>2762271</v>
+      </c>
+      <c r="J48" t="s">
+        <v>233</v>
+      </c>
+      <c r="K48" t="s">
+        <v>234</v>
+      </c>
+      <c r="L48">
+        <v>121.727034</v>
+      </c>
+      <c r="M48">
+        <v>24.966566</v>
+      </c>
+      <c r="N48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>235</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" t="s">
+        <v>236</v>
+      </c>
+      <c r="E49" t="s">
+        <v>237</v>
+      </c>
+      <c r="F49">
+        <v>222755.35</v>
+      </c>
+      <c r="G49">
+        <v>2667677.19</v>
+      </c>
+      <c r="H49">
+        <v>223584.34</v>
+      </c>
+      <c r="I49">
+        <v>2667471.3199999998</v>
+      </c>
+      <c r="J49" t="s">
+        <v>238</v>
+      </c>
+      <c r="K49" t="s">
+        <v>239</v>
+      </c>
+      <c r="L49">
+        <v>120.74013888888891</v>
+      </c>
+      <c r="M49">
+        <v>24.112177777777777</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" t="s">
+        <v>241</v>
+      </c>
+      <c r="E50" t="s">
+        <v>242</v>
+      </c>
+      <c r="F50">
+        <v>300786.24900000001</v>
+      </c>
+      <c r="G50">
+        <v>2675153.9049999998</v>
+      </c>
+      <c r="H50">
+        <v>301614.71299999987</v>
+      </c>
+      <c r="I50">
+        <v>2674948.0960000004</v>
+      </c>
+      <c r="J50" t="s">
+        <v>243</v>
+      </c>
+      <c r="K50" t="s">
+        <v>244</v>
+      </c>
+      <c r="L50">
+        <v>121.508015</v>
+      </c>
+      <c r="M50">
+        <v>24.179065000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B51" s="8">
+        <v>5</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F51" s="8">
+        <v>283642.19900000002</v>
+      </c>
+      <c r="G51" s="8">
+        <v>2676041.9049999998</v>
+      </c>
+      <c r="H51" s="8">
+        <v>284470.77500000002</v>
+      </c>
+      <c r="I51" s="8">
+        <v>2675836.0960000004</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="L51" s="8">
+        <v>121.33930100000001</v>
+      </c>
+      <c r="M51" s="8">
+        <v>24.187550999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" s="8">
+        <v>6</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F52" s="8">
+        <v>282322.19500000001</v>
+      </c>
+      <c r="G52" s="8">
+        <v>2675727.9040000001</v>
+      </c>
+      <c r="H52" s="8">
+        <v>283150.78000000003</v>
+      </c>
+      <c r="I52" s="8">
+        <v>2675522.0969999996</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="L52" s="8">
+        <v>121.326301</v>
+      </c>
+      <c r="M52" s="8">
+        <v>24.184744999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>253</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>254</v>
+      </c>
+      <c r="D53" t="s">
+        <v>255</v>
+      </c>
+      <c r="E53" t="s">
+        <v>256</v>
+      </c>
+      <c r="F53">
+        <v>238128.06</v>
+      </c>
+      <c r="G53">
+        <v>2597554.6039999998</v>
+      </c>
+      <c r="H53">
+        <v>238957</v>
+      </c>
+      <c r="I53">
+        <v>2597349</v>
+      </c>
+      <c r="J53" t="s">
+        <v>257</v>
+      </c>
+      <c r="K53" t="s">
+        <v>258</v>
+      </c>
+      <c r="L53">
+        <v>120.891891</v>
+      </c>
+      <c r="M53">
+        <v>23.479171999999998</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:A28"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
